--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_23_9.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_23_9.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_24</t>
+          <t>model_23_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998746368276498</v>
+        <v>0.999954286347177</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991465883636363</v>
+        <v>0.999075470360423</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999253941972739</v>
+        <v>0.9997006978771511</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999836342271607</v>
+        <v>0.9999580781290874</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9998933807152565</v>
+        <v>0.9998990135764341</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00011702101858162</v>
+        <v>4.267168831284474e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007966223021040652</v>
+        <v>0.0008630078363842772</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001155617735849345</v>
+        <v>5.335064354231985e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001446739128761811</v>
+        <v>2.476583983954543e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001301178432305578</v>
+        <v>3.905824169093264e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001200789562291396</v>
+        <v>0.0007574888493658126</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01081762536703966</v>
+        <v>0.006532357025824962</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000176983302141</v>
+        <v>1.000064536921633</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01127815407448612</v>
+        <v>0.006810452988257538</v>
       </c>
       <c r="P2" t="n">
-        <v>100.1063139866084</v>
+        <v>102.1239497896119</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.0802228062046</v>
+        <v>152.0978586092081</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_23</t>
+          <t>model_23_9_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998722515886648</v>
+        <v>0.9999551232627347</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991455100222464</v>
+        <v>0.9990748364688109</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999248234584548</v>
+        <v>0.9997066167218951</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999832269190788</v>
+        <v>0.9999581954067857</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9998915433335456</v>
+        <v>0.9999004670578793</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001192475344742491</v>
+        <v>4.189046437600983e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007976288864578957</v>
+        <v>0.0008635995463794456</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001164458280119788</v>
+        <v>5.229560867282036e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001482745282906492</v>
+        <v>2.469655665566269e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000132360178151314</v>
+        <v>3.849608266424153e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001211908695380971</v>
+        <v>0.0007514938585646062</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01092005194466808</v>
+        <v>0.006472284324410496</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000180350698356</v>
+        <v>1.000063355393786</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01138494116357642</v>
+        <v>0.006747822867576222</v>
       </c>
       <c r="P3" t="n">
-        <v>100.0686182073558</v>
+        <v>102.1609046749228</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.0425270269521</v>
+        <v>152.134813494519</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_22</t>
+          <t>model_23_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999869822653375</v>
+        <v>0.9999559397691307</v>
       </c>
       <c r="C4" t="n">
-        <v>0.999144385468985</v>
+        <v>0.9990741965943786</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999242636976944</v>
+        <v>0.9997124023274081</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998281244424219</v>
+        <v>0.9999583000074216</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998896869622361</v>
+        <v>0.9999018801545263</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001215148389493313</v>
+        <v>4.112829149592019e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007986786075652814</v>
+        <v>0.000864196841074826</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001173128778109534</v>
+        <v>5.126432371411324e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0001519384980274606</v>
+        <v>2.463476259594034e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.000134625687919207</v>
+        <v>3.794954315502679e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001223080316449429</v>
+        <v>0.0007455772683791255</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01102337693038441</v>
+        <v>0.006413134295796416</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000183779783471</v>
+        <v>1.000062202678874</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0114926649078469</v>
+        <v>0.006686154699786603</v>
       </c>
       <c r="P4" t="n">
-        <v>100.0309483427417</v>
+        <v>102.197628631413</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.004857162338</v>
+        <v>152.1715374510093</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_21</t>
+          <t>model_23_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998673514953114</v>
+        <v>0.9999567397438135</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991432245826812</v>
+        <v>0.9990735523458294</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999236919814751</v>
+        <v>0.9997181072521903</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998239170295222</v>
+        <v>0.9999583871972791</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9998878003080656</v>
+        <v>0.9999032613625199</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001238215565304084</v>
+        <v>4.038155024427347e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007997622439727956</v>
+        <v>0.0008647982188162695</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001181984461967481</v>
+        <v>5.024742010651083e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001556578633959502</v>
+        <v>2.45832541588742e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001369281547963491</v>
+        <v>3.741533713269251e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001234299793136925</v>
+        <v>0.0007397060597665145</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01112751349270844</v>
+        <v>0.006354647924493808</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000187268477208</v>
+        <v>1.000061073302851</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01160123477922147</v>
+        <v>0.006625178442574164</v>
       </c>
       <c r="P5" t="n">
-        <v>99.99333817807903</v>
+        <v>102.2342751088557</v>
       </c>
       <c r="Q5" t="n">
-        <v>149.9672469976753</v>
+        <v>152.208183928452</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_20</t>
+          <t>model_23_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998648140836706</v>
+        <v>0.999957521470156</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991420165312491</v>
+        <v>0.9990729043187996</v>
       </c>
       <c r="D6" t="n">
-        <v>0.999923074701379</v>
+        <v>0.9997236660358242</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998195408906131</v>
+        <v>0.9999584590408169</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998858236294371</v>
+        <v>0.9999045971740919</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001261901189175856</v>
+        <v>3.965184301741957e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008008899069573374</v>
+        <v>0.0008654031236034989</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001191545914306654</v>
+        <v>4.925656617818471e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001595263830527762</v>
+        <v>2.454081174133465e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001393404872417208</v>
+        <v>3.689868895975968e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001245628640650665</v>
+        <v>0.0007338953525487394</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01123343753788597</v>
+        <v>0.006296970939858272</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000190850705406</v>
+        <v>1.000059969689191</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01171166823029521</v>
+        <v>0.006565046029294875</v>
       </c>
       <c r="P6" t="n">
-        <v>99.95544181586114</v>
+        <v>102.2707462576187</v>
       </c>
       <c r="Q6" t="n">
-        <v>149.9293506354574</v>
+        <v>152.2446550772149</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_19</t>
+          <t>model_23_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999862213551355</v>
+        <v>0.9999582873263319</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991407351230021</v>
+        <v>0.9990722495320099</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999224426508379</v>
+        <v>0.9997291444089909</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998150563998716</v>
+        <v>0.9999585077109369</v>
       </c>
       <c r="F7" t="n">
-        <v>0.999883798334559</v>
+        <v>0.9999058967582604</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001286176016840251</v>
+        <v>3.893694989448501e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008020860453086974</v>
+        <v>0.000866014338329765</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001201336155663076</v>
+        <v>4.828004542642711e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001634906860477809</v>
+        <v>2.451205929379562e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001418121508070443</v>
+        <v>3.639605236011137e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001257066241536708</v>
+        <v>0.0007281353995259255</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01134097005039803</v>
+        <v>0.006239947907994506</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000194522045146</v>
+        <v>1.000058888480473</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01182377862448789</v>
+        <v>0.00650559540891072</v>
       </c>
       <c r="P7" t="n">
-        <v>99.91733376791171</v>
+        <v>102.3071337788538</v>
       </c>
       <c r="Q7" t="n">
-        <v>149.8912425875079</v>
+        <v>152.28104259845</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_18</t>
+          <t>model_23_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998595642267277</v>
+        <v>0.9999590374687731</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991394174621926</v>
+        <v>0.9990715838431932</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999217943913959</v>
+        <v>0.9997345837494698</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998104815109524</v>
+        <v>0.9999585422815532</v>
       </c>
       <c r="F8" t="n">
-        <v>0.999881730012992</v>
+        <v>0.9999071765798588</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001310906299317023</v>
+        <v>3.823672485294082e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008033160238356319</v>
+        <v>0.0008666357296198577</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001211377467212912</v>
+        <v>4.731048225650056e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001675349012975621</v>
+        <v>2.44916362942543e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001443363240094266</v>
+        <v>3.590105927537743e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00126855612408984</v>
+        <v>0.0007224419399079599</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01144948164467293</v>
+        <v>0.006183585113260819</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000198262268149</v>
+        <v>1.00005782945585</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01193690978198104</v>
+        <v>0.00644683313331815</v>
       </c>
       <c r="P8" t="n">
-        <v>99.87924328485707</v>
+        <v>102.3434282412003</v>
       </c>
       <c r="Q8" t="n">
-        <v>149.8531521044533</v>
+        <v>152.3173370607965</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_17</t>
+          <t>model_23_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998568618320784</v>
+        <v>0.9999597707989328</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991380253259041</v>
+        <v>0.9990709192880995</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999211282895064</v>
+        <v>0.9997398539366995</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998058064629392</v>
+        <v>0.9999585581103438</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998796140928689</v>
+        <v>0.9999084059359227</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001336131967153912</v>
+        <v>3.755219333833304e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008046155219532122</v>
+        <v>0.0008672560626291287</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001221695152021144</v>
+        <v>4.637107067593537e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001716676574808486</v>
+        <v>2.448228524949604e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001469185863414815</v>
+        <v>3.542558460693383e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001280080878924468</v>
+        <v>0.0007167987589464384</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01155911747130339</v>
+        <v>0.006127984443382101</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000202077413536</v>
+        <v>1.000056794166212</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0120512130327286</v>
+        <v>0.006388865427813441</v>
       </c>
       <c r="P9" t="n">
-        <v>99.84112304786024</v>
+        <v>102.3795575406386</v>
       </c>
       <c r="Q9" t="n">
-        <v>149.8150318674565</v>
+        <v>152.3534663602348</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_16</t>
+          <t>model_23_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998541056733736</v>
+        <v>0.9999604869294348</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991366020049678</v>
+        <v>0.9990702510673724</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999204468821238</v>
+        <v>0.999745053054481</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998010415293838</v>
+        <v>0.9999585675568076</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998774559050388</v>
+        <v>0.9999096083869209</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000136185949884883</v>
+        <v>3.68837169492365e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008059441295707523</v>
+        <v>0.0008678798173465368</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001232249913553012</v>
+        <v>4.544432723403613e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001758798727475452</v>
+        <v>2.447670463957384e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001495524320514232</v>
+        <v>3.496051593680497e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001291689498997659</v>
+        <v>0.0007112251365824916</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01166987360192402</v>
+        <v>0.006073196600575063</v>
       </c>
       <c r="N10" t="n">
-        <v>1.00020596846112</v>
+        <v>1.000055783158445</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01216668428112655</v>
+        <v>0.006331745153111638</v>
       </c>
       <c r="P10" t="n">
-        <v>99.80297865507418</v>
+        <v>102.4154807587935</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.7768874746704</v>
+        <v>152.3893895783897</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_15</t>
+          <t>model_23_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999851275102581</v>
+        <v>0.9999611914830558</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991351018053455</v>
+        <v>0.9990695626139469</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999197238515926</v>
+        <v>0.9997502586294158</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999796108017028</v>
+        <v>0.999958551533072</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998752102469132</v>
+        <v>0.9999107957007524</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0001388281634721556</v>
+        <v>3.622604707038258e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008073445000669533</v>
+        <v>0.000868522458399604</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001243449403068604</v>
+        <v>4.451643280369862e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.000180241112169296</v>
+        <v>2.448617085041554e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001522930262380782</v>
+        <v>3.450130182705708e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001303412237285974</v>
+        <v>0.0007056861735400704</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01178253637686537</v>
+        <v>0.006018807778155287</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000209964561062</v>
+        <v>1.000054788494509</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01228414334364125</v>
+        <v>0.006275040885921068</v>
       </c>
       <c r="P11" t="n">
-        <v>99.76454724722895</v>
+        <v>102.4514643310816</v>
       </c>
       <c r="Q11" t="n">
-        <v>149.7384560668252</v>
+        <v>152.4253731506779</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_14</t>
+          <t>model_23_9_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9998483814884974</v>
+        <v>0.999961878933404</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991335462522438</v>
+        <v>0.9990688838935646</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999189668506849</v>
+        <v>0.9997553154239386</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9997910755254138</v>
+        <v>0.9999585263472104</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998729071825129</v>
+        <v>0.9999119417329575</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001415292252042347</v>
+        <v>3.558434234587396e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008087965406064974</v>
+        <v>0.0008691560140840249</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001255175081808534</v>
+        <v>4.361505850176201e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001846898495462824</v>
+        <v>2.450104969532665e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001551036788635679</v>
+        <v>3.405805409854433e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001315198190486576</v>
+        <v>0.0007002155524641092</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01189660561690748</v>
+        <v>0.005965261297367783</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000214049663298</v>
+        <v>1.000053817976371</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01240306874738784</v>
+        <v>0.006219214820589944</v>
       </c>
       <c r="P12" t="n">
-        <v>99.7260086473226</v>
+        <v>102.4872096772027</v>
       </c>
       <c r="Q12" t="n">
-        <v>149.6999174669188</v>
+        <v>152.4611184967989</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_13</t>
+          <t>model_23_9_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9998454296736994</v>
+        <v>0.999962553119685</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991319257438309</v>
+        <v>0.9990682006601705</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999181989953735</v>
+        <v>0.9997602760932236</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9997859427563331</v>
+        <v>0.999958487466046</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998705609114036</v>
+        <v>0.9999130551551138</v>
       </c>
       <c r="G13" t="n">
-        <v>0.000144284614748426</v>
+        <v>3.495501904606217e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008103092140778465</v>
+        <v>0.0008697937824668797</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001267068891460193</v>
+        <v>4.273081853634497e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00018922723249838</v>
+        <v>2.452401920193966e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0001579670608221997</v>
+        <v>3.362741886914231e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001327021902621681</v>
+        <v>0.0006947805372434445</v>
       </c>
       <c r="M13" t="n">
-        <v>0.012011853093858</v>
+        <v>0.005912276976433205</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000218216931248</v>
+        <v>1.000052866183974</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01252322254802731</v>
+        <v>0.006163974847420517</v>
       </c>
       <c r="P13" t="n">
-        <v>99.68744543553757</v>
+        <v>102.5228969862534</v>
       </c>
       <c r="Q13" t="n">
-        <v>149.6613542551338</v>
+        <v>152.4968058058497</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9998424135277653</v>
+        <v>0.9999632140991171</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991302492852296</v>
+        <v>0.9990675092880783</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999173980310817</v>
+        <v>0.9997652007177502</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9997806589452882</v>
+        <v>0.9999584373513776</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998681389246838</v>
+        <v>0.99991415169204</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001471000545844812</v>
+        <v>3.433802375970491e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008118741145940946</v>
+        <v>0.0008704391479672736</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001279475547612196</v>
+        <v>4.185300355395386e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001938981369907977</v>
+        <v>2.455362503350637e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001609228458760087</v>
+        <v>3.320331429373011e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001338927249936572</v>
+        <v>0.0006893979973574417</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01212848113262668</v>
+        <v>0.005859865506963867</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000222475019626</v>
+        <v>1.00005193303654</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01264481568385969</v>
+        <v>0.006109332113189171</v>
       </c>
       <c r="P14" t="n">
-        <v>99.64879511857276</v>
+        <v>102.5585145067466</v>
       </c>
       <c r="Q14" t="n">
-        <v>149.622703938169</v>
+        <v>152.5324233263428</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_11</t>
+          <t>model_23_9_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9998393218858586</v>
+        <v>0.9999638584409354</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991284865101913</v>
+        <v>0.9990668190840788</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999165601012183</v>
+        <v>0.9997699674749244</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9997752659612258</v>
+        <v>0.9999583712285415</v>
       </c>
       <c r="F15" t="n">
-        <v>0.999865653938933</v>
+        <v>0.9999151996249409</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001499859665970015</v>
+        <v>3.373655895575084e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008135195877155296</v>
+        <v>0.0008710834231043914</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0001292454787512564</v>
+        <v>4.100332844830103e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001986655507515316</v>
+        <v>2.459268787908918e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.000163955514751394</v>
+        <v>3.27980081636951e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00135093877309223</v>
+        <v>0.0006840774265035098</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01224687578923709</v>
+        <v>0.005808318083210564</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000226839690553</v>
+        <v>1.000051023377503</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01276825064611273</v>
+        <v>0.006055590208888812</v>
       </c>
       <c r="P15" t="n">
-        <v>99.6099376485293</v>
+        <v>102.593856946265</v>
       </c>
       <c r="Q15" t="n">
-        <v>149.5838464681255</v>
+        <v>152.5677657658613</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_10</t>
+          <t>model_23_9_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9998361664907633</v>
+        <v>0.9999644899255409</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991266550425061</v>
+        <v>0.999066119964542</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999156973154355</v>
+        <v>0.9997746941419233</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9997697306583984</v>
+        <v>0.9999582918566818</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9998631016344451</v>
+        <v>0.9999162282011151</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001529313894125549</v>
+        <v>3.314709579544758e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008152291824074978</v>
+        <v>0.0008717360205042242</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001305819036892399</v>
+        <v>4.01607994217631e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0002035587747187892</v>
+        <v>2.463957774162574e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001670703392040146</v>
+        <v>3.240018858169442e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001362984490718793</v>
+        <v>0.0006787967707316875</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01236654314724025</v>
+        <v>0.005757351456655012</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000231294365981</v>
+        <v>1.000050131869825</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01289301249129167</v>
+        <v>0.006002453827525328</v>
       </c>
       <c r="P16" t="n">
-        <v>99.57104234472207</v>
+        <v>102.6291109063013</v>
       </c>
       <c r="Q16" t="n">
-        <v>149.5449511643183</v>
+        <v>152.6030197258976</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_9</t>
+          <t>model_23_9_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9998329217603115</v>
+        <v>0.9999651063447823</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991247472959378</v>
+        <v>0.9990654168106329</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999147667358291</v>
+        <v>0.9997793291750288</v>
       </c>
       <c r="E17" t="n">
-        <v>0.999764026224812</v>
+        <v>0.9999581959391352</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998604450514444</v>
+        <v>0.9999172230253193</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0001559602028621164</v>
+        <v>3.257169549132502e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008170099800886662</v>
+        <v>0.0008723923838134173</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0001320233388838745</v>
+        <v>3.933460414903351e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0002086015107740363</v>
+        <v>2.469624216395839e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001703124248289554</v>
+        <v>3.201542315649595e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001375194225928329</v>
+        <v>0.0006735888687083663</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01248840273462208</v>
+        <v>0.005707161771960298</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000235875161913</v>
+        <v>1.000049261630896</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01302005989359247</v>
+        <v>0.005950127464046192</v>
       </c>
       <c r="P17" t="n">
-        <v>99.53181938623804</v>
+        <v>102.6641337663793</v>
       </c>
       <c r="Q17" t="n">
-        <v>149.5057282058343</v>
+        <v>152.6380425859755</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_8</t>
+          <t>model_23_9_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.999829631337506</v>
+        <v>0.999965710508444</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991227988545399</v>
+        <v>0.9990647142864338</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999138536479591</v>
+        <v>0.9997838881105524</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9997582307689004</v>
+        <v>0.9999580913776029</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998577666026406</v>
+        <v>0.9999181937123447</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001590316681181865</v>
+        <v>3.20077352328353e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008188287646068902</v>
+        <v>0.0008730481593160445</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001334376799918923</v>
+        <v>3.852197328047184e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.00021372471083223</v>
+        <v>2.475801312271412e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001735811954120611</v>
+        <v>3.163999320159298e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001387350087416077</v>
+        <v>0.0006684202501277789</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0126107758729662</v>
+        <v>0.00565753791262907</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000240520464697</v>
+        <v>1.000048408693961</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01314764270978322</v>
+        <v>0.005898391014287682</v>
       </c>
       <c r="P18" t="n">
-        <v>99.49281441004246</v>
+        <v>102.6990659166989</v>
       </c>
       <c r="Q18" t="n">
-        <v>149.4667232296387</v>
+        <v>152.6729747362952</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_7</t>
+          <t>model_23_9_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9998262536418158</v>
+        <v>0.9999662994536918</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991207708418098</v>
+        <v>0.9990640135639197</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999128748390842</v>
+        <v>0.9997883093885961</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9997522822491006</v>
+        <v>0.9999579736621083</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9998549910098409</v>
+        <v>0.9999191226322317</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0001621845987812821</v>
+        <v>3.145798069578029e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008207218254709541</v>
+        <v>0.0008737022530247813</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0001349538206332247</v>
+        <v>3.773387987617806e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0002189832198174277</v>
+        <v>2.482755494001658e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001769685202253262</v>
+        <v>3.128071740809732e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001399654243950703</v>
+        <v>0.000663310542141953</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01273517172170372</v>
+        <v>0.005608741453818342</v>
       </c>
       <c r="N19" t="n">
-        <v>1.00024528897626</v>
+        <v>1.000047577241847</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0132773343473364</v>
+        <v>0.005847517189202786</v>
       </c>
       <c r="P19" t="n">
-        <v>99.45355074563562</v>
+        <v>102.7337156975932</v>
       </c>
       <c r="Q19" t="n">
-        <v>149.4274595652319</v>
+        <v>152.7076245171894</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_6</t>
+          <t>model_23_9_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9998228010754238</v>
+        <v>0.9999668768128781</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991186369417708</v>
+        <v>0.99906330397592</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999118538648896</v>
+        <v>0.999792707702931</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9997461888483711</v>
+        <v>0.999957842744434</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9998521361855337</v>
+        <v>0.9999200361777205</v>
       </c>
       <c r="G20" t="n">
-        <v>0.000165407417958133</v>
+        <v>3.091904123839084e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008227137274899486</v>
+        <v>0.0008743646222751701</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001365352738769043</v>
+        <v>3.69498797560427e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.000224369803970367</v>
+        <v>2.490489610066351e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001804525389236356</v>
+        <v>3.09273879283531e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001411995692815137</v>
+        <v>0.0006582427492205633</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01286108152365628</v>
+        <v>0.005560489298469231</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000250163187637</v>
+        <v>1.000046762146525</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0134086043902273</v>
+        <v>0.005797210839704733</v>
       </c>
       <c r="P20" t="n">
-        <v>99.41419785556441</v>
+        <v>102.7682766850796</v>
       </c>
       <c r="Q20" t="n">
-        <v>149.3881066751607</v>
+        <v>152.7421855046759</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_5</t>
+          <t>model_23_9_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9998192617225389</v>
+        <v>0.9999674420455666</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991164411237035</v>
+        <v>0.9990625875184552</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999107961154008</v>
+        <v>0.9997970329525286</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9997399295195831</v>
+        <v>0.9999576955830934</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998491961150702</v>
+        <v>0.9999209204808982</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001687112485164384</v>
+        <v>3.039142133454659e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008247634272705592</v>
+        <v>0.0008750334038697535</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001381736907622181</v>
+        <v>3.617890343513227e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.000229903069014646</v>
+        <v>2.499183339883585e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001840405917659337</v>
+        <v>3.058536841698406e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001424442217388311</v>
+        <v>0.0006532278807904004</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01298888942583</v>
+        <v>0.005512841493689673</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000255159921122</v>
+        <v>1.000045964170965</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01354185333939538</v>
+        <v>0.005747534569231156</v>
       </c>
       <c r="P21" t="n">
-        <v>99.37464378600737</v>
+        <v>102.8027003646371</v>
       </c>
       <c r="Q21" t="n">
-        <v>149.3485526056036</v>
+        <v>152.7766091842334</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_4</t>
+          <t>model_23_9_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9998156454019066</v>
+        <v>0.999967995750768</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991141496686734</v>
+        <v>0.9990618758367001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999096882380741</v>
+        <v>0.9998012824058675</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9997335404432541</v>
+        <v>0.9999575433391504</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998461808658007</v>
+        <v>0.9999217834362234</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001720869250885684</v>
+        <v>2.987456183387323e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008269023999579242</v>
+        <v>0.0008756977275488744</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001398897539115509</v>
+        <v>3.542143780751542e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0002355510312664349</v>
+        <v>2.508177330432763e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001877203925889929</v>
+        <v>3.025160555592152e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00143696418050936</v>
+        <v>0.0006482562900635998</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01311819061793845</v>
+        <v>0.00546576269461758</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000260265314955</v>
+        <v>1.000045182469504</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01367665915094226</v>
+        <v>0.005698451528216015</v>
       </c>
       <c r="P22" t="n">
-        <v>99.33502166077915</v>
+        <v>102.8370064289375</v>
       </c>
       <c r="Q22" t="n">
-        <v>149.3089304803754</v>
+        <v>152.8109152485337</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_3</t>
+          <t>model_23_9_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9998119466395403</v>
+        <v>0.9999685370611421</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991117937437342</v>
+        <v>0.9990611549603842</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999085424824613</v>
+        <v>0.9998054696842562</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9997270021536632</v>
+        <v>0.9999573807389499</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998430857241384</v>
+        <v>0.9999226241549523</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001755395574006063</v>
+        <v>2.936927236051455e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008291015524755242</v>
+        <v>0.000876370633946986</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0001416644891985714</v>
+        <v>3.467505487308988e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0002413308984803069</v>
+        <v>2.517783129119999e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0001914976938394392</v>
+        <v>2.992644308214493e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001450866687898801</v>
+        <v>0.0006433317488888228</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01324913421324602</v>
+        <v>0.005419342428792865</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000265487097119</v>
+        <v>1.000044418266623</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01381317728619268</v>
+        <v>0.005650055055571944</v>
       </c>
       <c r="P23" t="n">
-        <v>99.29529228432536</v>
+        <v>102.8711231759671</v>
       </c>
       <c r="Q23" t="n">
-        <v>149.2692011039216</v>
+        <v>152.8450319955633</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_2</t>
+          <t>model_23_9_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9998081660809017</v>
+        <v>0.9999690661874444</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991093465081816</v>
+        <v>0.9990604291847717</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999073386211069</v>
+        <v>0.9998095973436445</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9997202828220185</v>
+        <v>0.9999571987037569</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9998398881381536</v>
+        <v>0.9999234369942023</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0001790685429423726</v>
+        <v>2.887535618315448e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008313859394426081</v>
+        <v>0.0008770481136233842</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0001435292282427428</v>
+        <v>3.393929903350307e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0002472708074017806</v>
+        <v>2.528537072911941e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001954000178222617</v>
+        <v>2.961206347779733e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00146667782513688</v>
+        <v>0.0006384690920301421</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01338164948511104</v>
+        <v>0.00537357945722909</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000270824356374</v>
+        <v>1.000043671264784</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01395133400752542</v>
+        <v>0.005602343859566287</v>
       </c>
       <c r="P24" t="n">
-        <v>99.25548380790693</v>
+        <v>102.9050441077021</v>
       </c>
       <c r="Q24" t="n">
-        <v>149.2293926275032</v>
+        <v>152.8789529272983</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_1</t>
+          <t>model_23_9_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9998042880281475</v>
+        <v>0.9999695834169384</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991067931263368</v>
+        <v>0.999059704943189</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999060730108977</v>
+        <v>0.9998136317835109</v>
       </c>
       <c r="E25" t="n">
-        <v>0.999713377634548</v>
+        <v>0.9999570115340216</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9998365840524265</v>
+        <v>0.9999242230275406</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0001826885349616573</v>
+        <v>2.839254515428593e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008337694093142736</v>
+        <v>0.0008777241613503975</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0001454896140986271</v>
+        <v>3.322015958619325e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0002533750134194541</v>
+        <v>2.539594345845998e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001994323137590406</v>
+        <v>2.930805152232662e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001482656752715917</v>
+        <v>0.0006336337839904675</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01351623227684614</v>
+        <v>0.005328465553448378</v>
       </c>
       <c r="N25" t="n">
-        <v>1.00027629925438</v>
+        <v>1.00004294105844</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01409164626732947</v>
+        <v>0.005555309363502976</v>
       </c>
       <c r="P25" t="n">
-        <v>99.21545569981298</v>
+        <v>102.9387678836445</v>
       </c>
       <c r="Q25" t="n">
-        <v>149.1893645194092</v>
+        <v>152.9126767032407</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_23_9_0</t>
+          <t>model_23_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9998003356894108</v>
+        <v>0.9999700883831807</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991041383859567</v>
+        <v>0.9990589795864774</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999047743445231</v>
+        <v>0.9998175800730528</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9997063687930648</v>
+        <v>0.9999568158667125</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9998332214475016</v>
+        <v>0.9999249834207274</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0001863778696846787</v>
+        <v>2.792118133261186e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008362474929293838</v>
+        <v>0.0008784012500011061</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001475012027963899</v>
+        <v>3.251637644577383e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0002595708498890079</v>
+        <v>2.551153622987317e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0002035360263426989</v>
+        <v>2.901395633782351e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001498726050256354</v>
+        <v>0.0006288651166426844</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01365202804292017</v>
+        <v>0.005284049709513704</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000281879026714</v>
+        <v>1.000042228164921</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01423322314030126</v>
+        <v>0.00550900264513853</v>
       </c>
       <c r="P26" t="n">
-        <v>99.17546877525749</v>
+        <v>102.9722499392505</v>
       </c>
       <c r="Q26" t="n">
-        <v>149.1493775948537</v>
+        <v>152.9461587588467</v>
       </c>
     </row>
   </sheetData>
